--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P21_trail13 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P21_trail13 Features.xlsx
@@ -3639,7 +3639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3650,29 +3650,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="18" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
-    <col width="21" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3693,115 +3691,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3818,72 +3806,66 @@
         <v>4.822048957493809e-09</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-2.752432848817986</v>
+        <v>3.14013967190818e-08</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>8.274291171068775</v>
+        <v>3.266705247548011e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.14013967190818e-08</v>
+        <v>0.1086292807671046</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.266705247548011e-07</v>
+        <v>0.2294564054663004</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.1086292807671046</v>
+        <v>0.06431343982270758</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2294564054663004</v>
+        <v>1.871968609493793</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.06431343982270758</v>
+        <v>2.788738880256638</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.89832702983971</v>
+        <v>8.778065978752554</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.788738880256638</v>
+        <v>8.541821887364925e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>8.778065978752554</v>
+        <v>39754362063.03153</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8.541821887364925e-19</v>
+        <v>2.966189350005376e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>39754362063.03153</v>
+        <v>1349.957477569026</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.966189350005376e-09</v>
+        <v>2.247610951392933e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1349.957477569026</v>
+        <v>14.17199297116965</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>2.247610951392933e-05</v>
+        <v>1.10912316559321</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>14.17199297116965</v>
+        <v>0.00451422286356752</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.10912316559321</v>
+        <v>7.918559559823641</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.00451422286356752</v>
+        <v>0.9536538864179155</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>7.918559559823641</v>
+        <v>0.9702018672901107</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9536538864179155</v>
+        <v>203</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9702018672901107</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>203</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>14.80840080619489</v>
       </c>
     </row>
@@ -3898,72 +3880,66 @@
         <v>3.96380580629858e-09</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-2.336974416132786</v>
+        <v>2.658866299672886e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>6.520074240201001</v>
+        <v>3.271510135488484e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.658866299672886e-08</v>
+        <v>0.1118944411122426</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.271510135488484e-07</v>
+        <v>0.2112374372165573</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.1118944411122426</v>
+        <v>0.05701743315757429</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2112374372165573</v>
+        <v>1.881773892857464</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.05701743315757429</v>
+        <v>2.350033282599556</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.912608682785029</v>
+        <v>8.174869420227115</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.350033282599556</v>
+        <v>1.079205686825716e-18</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>8.174869420227115</v>
+        <v>30847262876.68814</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.079205686825716e-18</v>
+        <v>3.833357647211923e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>30847262876.68814</v>
+        <v>1026.922085560232</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.833357647211923e-09</v>
+        <v>5.285256304155015e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1026.922085560232</v>
+        <v>13.44920934097584</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>5.285256304155015e-05</v>
+        <v>1.093029257150995</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>13.44920934097584</v>
+        <v>0.009560036711890159</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.093029257150995</v>
+        <v>6.90753746901026</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009560036711890159</v>
+        <v>0.9540463637466018</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>6.90753746901026</v>
+        <v>0.8860258309216875</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9540463637466018</v>
+        <v>157</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.8860258309216875</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>157</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>11.46142486750794</v>
       </c>
     </row>
@@ -3978,72 +3954,66 @@
         <v>3.41422906912454e-09</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-1.680153431316017</v>
+        <v>2.354298363913827e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>4.579390694126504</v>
+        <v>3.275668559358812e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.354298363913827e-08</v>
+        <v>0.1150126708102661</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.275668559358812e-07</v>
+        <v>0.1917719470050953</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.1150126708102661</v>
+        <v>0.04990882514431139</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1917719470050953</v>
+        <v>1.889442413560179</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.04990882514431139</v>
+        <v>2.359652258156237</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.90834184377881</v>
+        <v>7.679893441997182</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.359652258156237</v>
+        <v>2.028052674011664e-18</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>7.679893441997182</v>
+        <v>16972690339.30002</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.028052674011664e-18</v>
+        <v>7.008871635445905e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>16972690339.30002</v>
+        <v>584.2256307127789</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.008871635445905e-09</v>
+        <v>7.148081689517939e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>584.2256307127789</v>
+        <v>12.64388830343642</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>7.148081689517939e-05</v>
+        <v>1.046244807701908</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>12.64388830343642</v>
+        <v>0.0114274889043266</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.046244807701908</v>
+        <v>6.175471311247522</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0114274889043266</v>
+        <v>0.9552742722307245</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>6.175471311247522</v>
+        <v>1.09403486850148</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9552742722307245</v>
+        <v>130</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.09403486850148</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>130</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>9.13037185223398</v>
       </c>
     </row>
@@ -4058,72 +4028,66 @@
         <v>3.11923411337768e-09</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.7955040020172832</v>
+        <v>2.119860597906736e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>3.08960065866451</v>
+        <v>3.279393065340695e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.119860597906736e-08</v>
+        <v>0.1133302147365636</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.279393065340695e-07</v>
+        <v>0.169958887056509</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.1133302147365636</v>
+        <v>0.04166965304385087</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.169958887056509</v>
+        <v>1.892570393014663</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04166965304385087</v>
+        <v>2.2289516286817</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.90876635538314</v>
+        <v>4.912795467738947</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.2289516286817</v>
+        <v>5.9967631635251e-18</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.912795467738947</v>
+        <v>5741812038.012583</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>5.9967631635251e-18</v>
+        <v>2.075792313489788e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>5741812038.012583</v>
+        <v>197.7037195418208</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.075792313489788e-08</v>
+        <v>0.0002185316347297067</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>197.7037195418208</v>
+        <v>9.089010277638888</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002185316347297067</v>
+        <v>2.115894316272353</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.089010277638888</v>
+        <v>0.01805292190863719</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>2.115894316272353</v>
+        <v>4.043964913090695</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01805292190863719</v>
+        <v>0.9558145047547951</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>4.043964913090695</v>
+        <v>1.431364134622795</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9558145047547951</v>
+        <v>105</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.431364134622795</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>105</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>2.627146795830395</v>
       </c>
     </row>
@@ -4500,7 +4464,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.417240068970432</v>
+        <v>1.407150882000036</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.424578667533701</v>
@@ -4589,7 +4553,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.426593949432887</v>
+        <v>1.420533119194373</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.344805267221108</v>
@@ -4678,7 +4642,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.432913839642746</v>
+        <v>1.427282478418711</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.382426195163208</v>
@@ -4767,7 +4731,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.435407437230298</v>
+        <v>1.429804607994644</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.438140372806212</v>
@@ -4856,7 +4820,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.447841869214687</v>
+        <v>1.436153875628394</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.414768400644392</v>
@@ -4945,7 +4909,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.451363808643428</v>
+        <v>1.439681432634621</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.313670925103581</v>
@@ -5034,7 +4998,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.470124068403111</v>
+        <v>1.459459106184532</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.598005411961151</v>
@@ -5123,7 +5087,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.464773802360377</v>
+        <v>1.456365239591205</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.430058918662797</v>
@@ -5212,7 +5176,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.442258204662131</v>
+        <v>1.435081857665585</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.270621612129581</v>
@@ -5301,7 +5265,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.439461084689396</v>
+        <v>1.426680931174648</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.401913270319506</v>
@@ -5390,7 +5354,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.39881051993287</v>
+        <v>1.386176246484421</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.234328863984415</v>
@@ -5479,7 +5443,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.349018604560043</v>
+        <v>1.342817733675945</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.075136922465588</v>
@@ -5568,7 +5532,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.342287442088398</v>
+        <v>1.33608849620662</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.137173003049615</v>
@@ -5657,7 +5621,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.344159968590289</v>
+        <v>1.337357567851629</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.025255737744581</v>
@@ -5746,7 +5710,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.329574505731124</v>
+        <v>1.326200159572211</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.15740382013963</v>
@@ -5835,7 +5799,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.338405559453632</v>
+        <v>1.334319877037555</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.115583861543989</v>
@@ -5924,7 +5888,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.331372030978293</v>
+        <v>1.326159583089489</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.071350760912444</v>
@@ -6013,7 +5977,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.331871710518417</v>
+        <v>1.329109560505497</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.099182386033343</v>
@@ -6102,7 +6066,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.326304976690809</v>
+        <v>1.326388340894084</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.07073439929888</v>
@@ -6191,7 +6155,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.349522671694426</v>
+        <v>1.344255380768597</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.9727615675027</v>
@@ -6280,7 +6244,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.350050796953557</v>
+        <v>1.341783087633526</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.059643053144039</v>
@@ -6369,7 +6333,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.357487587997796</v>
+        <v>1.349534913552863</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.994843579950487</v>
@@ -6458,7 +6422,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.372505774748025</v>
+        <v>1.361711149872477</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.004558788201904</v>
@@ -6547,7 +6511,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.359753849094772</v>
+        <v>1.352550679537624</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.092750985791148</v>
@@ -6636,7 +6600,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.372799139516975</v>
+        <v>1.365036932985052</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.049750242285014</v>
@@ -6725,7 +6689,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.397544759840609</v>
+        <v>1.382713742480183</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.007579308837156</v>
@@ -6814,7 +6778,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.41425823851223</v>
+        <v>1.399148493423634</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.229425500024591</v>
@@ -6903,7 +6867,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.400569468858171</v>
+        <v>1.385694203068091</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.279252851498462</v>
@@ -6992,7 +6956,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.404255186827353</v>
+        <v>1.38939904881866</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.374895190695785</v>
@@ -7081,7 +7045,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.405699661176734</v>
+        <v>1.391109481926217</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.306297111530686</v>
@@ -7170,7 +7134,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.409468908233706</v>
+        <v>1.395692132349925</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.436984840119654</v>
@@ -7259,7 +7223,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.398790329958665</v>
+        <v>1.382530148877952</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.340116893336586</v>
@@ -7348,7 +7312,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.370484309343871</v>
+        <v>1.353329282744631</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.476658414482698</v>
@@ -7437,7 +7401,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.383574040462747</v>
+        <v>1.367676505203764</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.337515511014595</v>
@@ -7526,7 +7490,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.38407802818557</v>
+        <v>1.371532226313273</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.431743217582367</v>
@@ -7615,7 +7579,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.369344187660541</v>
+        <v>1.357463905227709</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.315475551789004</v>
@@ -7704,7 +7668,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.375513185614538</v>
+        <v>1.358966390701782</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.267027237692402</v>
@@ -7793,7 +7757,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.366726866802165</v>
+        <v>1.349007706628006</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.359378834598489</v>
@@ -7882,7 +7846,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.372493437952745</v>
+        <v>1.355988981749275</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.278355507950754</v>
@@ -7971,7 +7935,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.373818458140079</v>
+        <v>1.362170554777465</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.311999394952731</v>
@@ -8060,7 +8024,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.397978662401518</v>
+        <v>1.383672255567654</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.20793346117781</v>
@@ -8149,7 +8113,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.417664246016539</v>
+        <v>1.403977104147065</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.267010803745106</v>
@@ -8238,7 +8202,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.438243661613554</v>
+        <v>1.425430404615555</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.250850961659632</v>
@@ -8327,7 +8291,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.43616790022063</v>
+        <v>1.421566631854948</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.215646259388653</v>
@@ -8416,7 +8380,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.454863825083925</v>
+        <v>1.43724586009522</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.201115912929547</v>
@@ -8505,7 +8469,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.453357302627521</v>
+        <v>1.432842924671088</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.270882257995905</v>
@@ -8594,7 +8558,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.49688805370731</v>
+        <v>1.47364356157984</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.070650122152026</v>
@@ -8683,7 +8647,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.504340364772017</v>
+        <v>1.485726660730667</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.227058240491829</v>
@@ -8772,7 +8736,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.494481214220854</v>
+        <v>1.472521804424885</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.121199801477556</v>
@@ -9058,7 +9022,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.401000903609094</v>
+        <v>1.398890826862358</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.182615031641053</v>
@@ -9147,7 +9111,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.372854464157699</v>
+        <v>1.372114913439695</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.165433553190254</v>
@@ -9236,7 +9200,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.362353975994715</v>
+        <v>1.360243333212773</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.096148629947884</v>
@@ -9325,7 +9289,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.368505717284595</v>
+        <v>1.366025215588711</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.28990190238014</v>
@@ -9414,7 +9378,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.401048645082002</v>
+        <v>1.39820856328291</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.314957623138463</v>
@@ -9503,7 +9467,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.394966767147684</v>
+        <v>1.392344435224149</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.225806169917254</v>
@@ -9592,7 +9556,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.401881314352053</v>
+        <v>1.399926161475987</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.271618592367955</v>
@@ -9681,7 +9645,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.40340048352368</v>
+        <v>1.399329987748358</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.17055224595078</v>
@@ -9770,7 +9734,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.358904493472736</v>
+        <v>1.357004928835203</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.014467237421244</v>
@@ -9859,7 +9823,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.375054640702993</v>
+        <v>1.37189666011011</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.041984340387952</v>
@@ -9948,7 +9912,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.377169639906278</v>
+        <v>1.376522555435731</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.030522417373751</v>
@@ -10037,7 +10001,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.386532635569856</v>
+        <v>1.385230228569791</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.978432962466743</v>
@@ -10126,7 +10090,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.387326796538216</v>
+        <v>1.386334412868472</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.035127880226042</v>
@@ -10215,7 +10179,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.387904438687249</v>
+        <v>1.386711022486202</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.00851766613073</v>
@@ -10304,7 +10268,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.380252021689539</v>
+        <v>1.381637179399518</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.073648329259535</v>
@@ -10393,7 +10357,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.39246562844425</v>
+        <v>1.394999562642309</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.998454196602405</v>
@@ -10482,7 +10446,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.412455099348498</v>
+        <v>1.418794399463465</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.973885329847094</v>
@@ -10571,7 +10535,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.434892017789365</v>
+        <v>1.442386025409552</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.004928622578502</v>
@@ -10660,7 +10624,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.425493019045436</v>
+        <v>1.433220720514067</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.002221712086174</v>
@@ -10749,7 +10713,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.411333058553824</v>
+        <v>1.412523797406784</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.941694089533359</v>
@@ -10838,7 +10802,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.42868731283754</v>
+        <v>1.429627757002915</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.963223556751833</v>
@@ -10927,7 +10891,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.443882358779635</v>
+        <v>1.443759051163856</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.907591024438209</v>
@@ -11016,7 +10980,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.4449711635169</v>
+        <v>1.448573526540024</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.996882359471907</v>
@@ -11105,7 +11069,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.520116727813924</v>
+        <v>1.518080870959293</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.506633863387881</v>
@@ -11194,7 +11158,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.524732462391379</v>
+        <v>1.522390252362947</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.548448672428304</v>
@@ -11283,7 +11247,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.528958794011633</v>
+        <v>1.524033529555235</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.712568549845461</v>
@@ -11372,7 +11336,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.545332616537544</v>
+        <v>1.538009870304848</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.815184764524181</v>
@@ -11461,7 +11425,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.55063636203813</v>
+        <v>1.54295277683919</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.004428738423596</v>
@@ -11550,7 +11514,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.546460359597421</v>
+        <v>1.540582090033348</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.043077278116309</v>
@@ -11639,7 +11603,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.529422793749172</v>
+        <v>1.527867442411509</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.954136157699107</v>
@@ -11728,7 +11692,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.531113173140511</v>
+        <v>1.526289702910602</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.032573513485941</v>
@@ -11817,7 +11781,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.522823893079317</v>
+        <v>1.518549125527776</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.722184446074322</v>
@@ -11906,7 +11870,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.512588375943001</v>
+        <v>1.50140777916061</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.65935347414616</v>
@@ -11995,7 +11959,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.51749446798764</v>
+        <v>1.500000422433292</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.887264053943635</v>
@@ -12084,7 +12048,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.523478220367257</v>
+        <v>1.504208629804744</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.241783923038799</v>
@@ -12173,7 +12137,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.519351576822203</v>
+        <v>1.500719243384227</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.096271619434434</v>
@@ -12262,7 +12226,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.513321305981008</v>
+        <v>1.495647180943773</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.850710823178274</v>
@@ -12351,7 +12315,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.510536645852346</v>
+        <v>1.494068699348794</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.266017746399693</v>
@@ -12440,7 +12404,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.514259152858827</v>
+        <v>1.498449263719282</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.05424507992083</v>
@@ -12529,7 +12493,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.512387443887596</v>
+        <v>1.491693408391118</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.916266107905129</v>
@@ -12618,7 +12582,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.505163840695386</v>
+        <v>1.481628940869598</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.553019608211287</v>
@@ -12707,7 +12671,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.482946561650053</v>
+        <v>1.466118173641565</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.145596219811125</v>
@@ -12796,7 +12760,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.473530091471661</v>
+        <v>1.453132270161541</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.565254587921957</v>
@@ -12885,7 +12849,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.483138733293883</v>
+        <v>1.465873439267218</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.695463113797104</v>
@@ -12974,7 +12938,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.483878350153566</v>
+        <v>1.460829962810867</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.743087768816955</v>
@@ -13063,7 +13027,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.468633551341171</v>
+        <v>1.453196057953639</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.598000739460982</v>
@@ -13152,7 +13116,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.467106304198283</v>
+        <v>1.458523709739126</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.613056550134525</v>
@@ -13241,7 +13205,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.465575800400852</v>
+        <v>1.462027224229384</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.723135995120189</v>
@@ -13330,7 +13294,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.446316806277055</v>
+        <v>1.448075297985596</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.496380667701856</v>
@@ -13616,7 +13580,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.405642945209779</v>
+        <v>1.403185080265417</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.73209534737289</v>
@@ -13705,7 +13669,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.396472203428906</v>
+        <v>1.393520286204417</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.763543617065993</v>
@@ -13794,7 +13758,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.397008190585046</v>
+        <v>1.392632174327223</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.548808564370941</v>
@@ -13883,7 +13847,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.425534635278244</v>
+        <v>1.415942347881562</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.493921548320896</v>
@@ -13972,7 +13936,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.439170884922074</v>
+        <v>1.430611805550778</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.546402373097433</v>
@@ -14061,7 +14025,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.456594337964018</v>
+        <v>1.448535832880124</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.945172339072722</v>
@@ -14150,7 +14114,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.460770720011328</v>
+        <v>1.449195770892418</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.413661464198037</v>
@@ -14239,7 +14203,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.463261528397993</v>
+        <v>1.455027384671612</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.895889224540335</v>
@@ -14328,7 +14292,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.470637237800219</v>
+        <v>1.460964249966206</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.468669719421295</v>
@@ -14417,7 +14381,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.479530068437872</v>
+        <v>1.464991744554633</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.629734339543775</v>
@@ -14506,7 +14470,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.473483844015029</v>
+        <v>1.458771467120145</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.027834312528676</v>
@@ -14595,7 +14559,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.451030204431051</v>
+        <v>1.440947013746238</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.626570462978651</v>
@@ -14684,7 +14648,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.45098973437382</v>
+        <v>1.441542620267116</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.840997807441248</v>
@@ -14773,7 +14737,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.454093059004499</v>
+        <v>1.442984328812561</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.801436602146078</v>
@@ -14862,7 +14826,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.456803279992984</v>
+        <v>1.448243329521692</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.473069402368312</v>
@@ -14951,7 +14915,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.471413858353249</v>
+        <v>1.458380981218707</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.530456948905947</v>
@@ -15040,7 +15004,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.47458752092504</v>
+        <v>1.466413717373747</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.533794385954811</v>
@@ -15129,7 +15093,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.459395413600403</v>
+        <v>1.462382014937896</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.638255881293897</v>
@@ -15218,7 +15182,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.442024327317864</v>
+        <v>1.443739299781969</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.434390557099465</v>
@@ -15307,7 +15271,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.433850401123644</v>
+        <v>1.42789776254846</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.490122244917907</v>
@@ -15396,7 +15360,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.431371823482318</v>
+        <v>1.42420234536379</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.608468818327241</v>
@@ -15485,7 +15449,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.442745995189083</v>
+        <v>1.433043931312832</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.546001948700475</v>
@@ -15574,7 +15538,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.44977829181796</v>
+        <v>1.433035882535617</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.379490983259616</v>
@@ -15663,7 +15627,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.448270532559478</v>
+        <v>1.436045811985805</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.534729113281197</v>
@@ -15752,7 +15716,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.456202595665316</v>
+        <v>1.447407204690606</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.654665668929435</v>
@@ -15841,7 +15805,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.457432055102353</v>
+        <v>1.45061230827797</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.609294856337377</v>
@@ -15930,7 +15894,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.477024334190191</v>
+        <v>1.465408064255439</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.531252510241781</v>
@@ -16019,7 +15983,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.480122050207962</v>
+        <v>1.467605853857566</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.535001560923343</v>
@@ -16108,7 +16072,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.48184701609303</v>
+        <v>1.461581331965334</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.64336857091754</v>
@@ -16197,7 +16161,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.463805295275981</v>
+        <v>1.447424211725483</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.675169898925323</v>
@@ -16286,7 +16250,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.466459133359264</v>
+        <v>1.449889213562494</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.599358290383973</v>
@@ -16375,7 +16339,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.472579167769432</v>
+        <v>1.449498165739661</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.499992307614376</v>
@@ -16464,7 +16428,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.483743249335475</v>
+        <v>1.453564144295868</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.838999583636254</v>
@@ -16553,7 +16517,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.488677871891535</v>
+        <v>1.461626461366941</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.731662600448247</v>
@@ -16642,7 +16606,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.499757352721409</v>
+        <v>1.473060046327814</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.627100952157075</v>
@@ -16731,7 +16695,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.473089637866663</v>
+        <v>1.453187134801195</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.43434710530371</v>
@@ -16820,7 +16784,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.471731394124609</v>
+        <v>1.449690420532499</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.406392588802882</v>
@@ -16909,7 +16873,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.463119355655271</v>
+        <v>1.444052004441535</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.508040634640336</v>
@@ -16998,7 +16962,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.460233715642864</v>
+        <v>1.436012590284882</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.403525195974072</v>
@@ -17087,7 +17051,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.459698689230785</v>
+        <v>1.432748445119543</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.444644230798685</v>
@@ -17176,7 +17140,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.458423004213645</v>
+        <v>1.424994405063673</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.25475520849347</v>
@@ -17265,7 +17229,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.457446577843481</v>
+        <v>1.423825504929808</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.40175301623922</v>
@@ -17354,7 +17318,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.450688875739334</v>
+        <v>1.418070810601851</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.367628295319273</v>
@@ -17443,7 +17407,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.459642379077036</v>
+        <v>1.432623940971228</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.266491234359962</v>
@@ -17532,7 +17496,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.467550977477406</v>
+        <v>1.4395342204052</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.444107896639293</v>
@@ -17621,7 +17585,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.458947182459582</v>
+        <v>1.432049724832466</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.440150377077075</v>
@@ -17710,7 +17674,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.457609159104924</v>
+        <v>1.434065147343234</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.288351939507808</v>
@@ -17799,7 +17763,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.463659868183295</v>
+        <v>1.442273172372195</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.36562185330731</v>
@@ -17888,7 +17852,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.460156856682846</v>
+        <v>1.434735844517085</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.350682864382346</v>
@@ -18174,7 +18138,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.432190794906389</v>
+        <v>1.440095455209678</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.474423049368594</v>
@@ -18263,7 +18227,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.44322504000735</v>
+        <v>1.451317309376628</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.601365321605881</v>
@@ -18352,7 +18316,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.472458788595692</v>
+        <v>1.483824517611516</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.370530858785989</v>
@@ -18441,7 +18405,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.521370621782959</v>
+        <v>1.522542083215927</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.546670542676984</v>
@@ -18530,7 +18494,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.544913698373247</v>
+        <v>1.540470005109827</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.56627528266881</v>
@@ -18619,7 +18583,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.559388443467291</v>
+        <v>1.551953445200065</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.410027371392135</v>
@@ -18708,7 +18672,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.579141418209428</v>
+        <v>1.568253354093108</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.469362039450967</v>
@@ -18797,7 +18761,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.598674247518577</v>
+        <v>1.582453450899332</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.521822868980926</v>
@@ -18886,7 +18850,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.633892733619457</v>
+        <v>1.600931760624607</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.445761766847262</v>
@@ -18975,7 +18939,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.642835683406653</v>
+        <v>1.60984085803378</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.13942763652137</v>
@@ -19064,7 +19028,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.636546919990978</v>
+        <v>1.602471588188521</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.154988829133656</v>
@@ -19153,7 +19117,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.616560350417872</v>
+        <v>1.584310152764292</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.844705975708119</v>
@@ -19242,7 +19206,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.617126424122396</v>
+        <v>1.581412327223192</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.947014068486698</v>
@@ -19331,7 +19295,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.619358238501712</v>
+        <v>1.581610511537396</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.89786666800146</v>
@@ -19420,7 +19384,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.587582048948911</v>
+        <v>1.54693543980395</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.802853246350614</v>
@@ -19509,7 +19473,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.592830271103673</v>
+        <v>1.549038045495934</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.901098502901083</v>
@@ -19598,7 +19562,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.593653858124392</v>
+        <v>1.555915192580734</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.641508387021957</v>
@@ -19687,7 +19651,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.577927337404653</v>
+        <v>1.545777842848492</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.866036910126843</v>
@@ -19776,7 +19740,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.570031212866257</v>
+        <v>1.535769104525495</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.746396745654299</v>
@@ -19865,7 +19829,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.560581381987146</v>
+        <v>1.518885759968689</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.807856028597316</v>
@@ -19954,7 +19918,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.569872134397994</v>
+        <v>1.524584084803028</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.596623109877255</v>
@@ -20043,7 +20007,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.568243218819655</v>
+        <v>1.521743850438857</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.882139211974234</v>
@@ -20132,7 +20096,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.567203006886773</v>
+        <v>1.524168411798496</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.641711122763943</v>
@@ -20221,7 +20185,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.567718783472437</v>
+        <v>1.529983585439689</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.693764705489764</v>
@@ -20310,7 +20274,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.56467832033139</v>
+        <v>1.530707967075971</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.585871873644517</v>
@@ -20399,7 +20363,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.563534325039979</v>
+        <v>1.532338243839063</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.783720657649023</v>
@@ -20488,7 +20452,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.586925732101747</v>
+        <v>1.547764397521667</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.263304459469579</v>
@@ -20577,7 +20541,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.593714462142263</v>
+        <v>1.560225548066232</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.121979912188463</v>
@@ -20666,7 +20630,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.592612220335378</v>
+        <v>1.560511284060818</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.132826399170631</v>
@@ -20755,7 +20719,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.578189143346785</v>
+        <v>1.544242074052681</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.013400309195393</v>
@@ -20844,7 +20808,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.579754161152138</v>
+        <v>1.546560126946903</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.254662590034081</v>
@@ -20933,7 +20897,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.584592119492405</v>
+        <v>1.539383094760038</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.105131684742448</v>
@@ -21022,7 +20986,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.590397940220533</v>
+        <v>1.540923700619965</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.285021858964403</v>
@@ -21111,7 +21075,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.58823990186419</v>
+        <v>1.541214020197708</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.584286449594732</v>
@@ -21200,7 +21164,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.582788168234433</v>
+        <v>1.548854942114453</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.954456703331103</v>
@@ -21289,7 +21253,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.580807563737713</v>
+        <v>1.546828827320741</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.009304008517954</v>
@@ -21378,7 +21342,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.573116110642181</v>
+        <v>1.539451928092207</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.840103900727325</v>
@@ -21467,7 +21431,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.54068356422306</v>
+        <v>1.511758160725006</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.032080236167347</v>
@@ -21556,7 +21520,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.531433596453832</v>
+        <v>1.508727658636992</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.806219402165195</v>
@@ -21645,7 +21609,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.52420887537016</v>
+        <v>1.502375064898099</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.018520417227516</v>
@@ -21734,7 +21698,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.519932003127654</v>
+        <v>1.487436499654131</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.60416030612379</v>
@@ -21823,7 +21787,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.520184251814385</v>
+        <v>1.493154170668491</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.120618022343785</v>
@@ -21912,7 +21876,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.50643862018398</v>
+        <v>1.47796826023897</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.835223570292879</v>
@@ -22001,7 +21965,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.514006135295448</v>
+        <v>1.488334043946055</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.825639317397139</v>
@@ -22090,7 +22054,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.514981601101952</v>
+        <v>1.488955087916821</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.716877241899861</v>
@@ -22179,7 +22143,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.499452133121524</v>
+        <v>1.477414730490334</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.957773308566814</v>
@@ -22268,7 +22232,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.485354909049121</v>
+        <v>1.469679896676155</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.945437314521517</v>
@@ -22357,7 +22321,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.481926498381189</v>
+        <v>1.465850631762523</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.899710736090131</v>
@@ -22446,7 +22410,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.472589430577984</v>
+        <v>1.457254987796998</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.08670292296288</v>
@@ -22732,7 +22696,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.108530976467502</v>
+        <v>1.099109795430025</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.017213446170816</v>
@@ -22821,7 +22785,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.107272029335832</v>
+        <v>1.101084207636253</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.935984648380882</v>
@@ -22910,7 +22874,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.116882597418515</v>
+        <v>1.115607704790372</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.870559604286715</v>
@@ -22999,7 +22963,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.141992018732804</v>
+        <v>1.143086910025929</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.816887936726442</v>
@@ -23088,7 +23052,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.172394195334618</v>
+        <v>1.175596291847257</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.757287319579992</v>
@@ -23177,7 +23141,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.199443566013296</v>
+        <v>1.202721042648686</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.85846070211169</v>
@@ -23266,7 +23230,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.23646342503012</v>
+        <v>1.239852863518437</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.720493545367108</v>
@@ -23355,7 +23319,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.255508359197616</v>
+        <v>1.257319729251438</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.742071406173272</v>
@@ -23444,7 +23408,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.284260643756347</v>
+        <v>1.289878270599077</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.71238801662882</v>
@@ -23533,7 +23497,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.309518889189472</v>
+        <v>1.314885219726222</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.076353545640145</v>
@@ -23622,7 +23586,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.308873978723591</v>
+        <v>1.3092952555985</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.094287222168673</v>
@@ -23711,7 +23675,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.311682099174968</v>
+        <v>1.311451533562791</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.100088614775869</v>
@@ -23800,7 +23764,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.30390198119203</v>
+        <v>1.305080019096891</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.072003923418831</v>
@@ -23889,7 +23853,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.306057781791501</v>
+        <v>1.304880805479613</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.021116013558833</v>
@@ -23978,7 +23942,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.316279741112076</v>
+        <v>1.31625372515967</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.985468042915931</v>
@@ -24067,7 +24031,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.349549662188732</v>
+        <v>1.349465478565559</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.003091183268787</v>
@@ -24156,7 +24120,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.33339827070857</v>
+        <v>1.331383698684637</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.96924154807578</v>
@@ -24245,7 +24209,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.312611562475666</v>
+        <v>1.306558455765575</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.063680587066446</v>
@@ -24334,7 +24298,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.308426860446802</v>
+        <v>1.29760711213159</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.980603193363603</v>
@@ -24423,7 +24387,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.316844404699933</v>
+        <v>1.301448452607765</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.915646020353066</v>
@@ -24512,7 +24476,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.324900531777211</v>
+        <v>1.314246278525957</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.144758911331575</v>
@@ -24601,7 +24565,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.32694381556381</v>
+        <v>1.313337805236428</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.044251774539442</v>
@@ -24690,7 +24654,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.327287230283916</v>
+        <v>1.315953183599318</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.130569618301055</v>
@@ -24779,7 +24743,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.324600046452095</v>
+        <v>1.315872320875661</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.066591829499421</v>
@@ -24868,7 +24832,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.313479382706327</v>
+        <v>1.310793261687331</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.165594128406162</v>
@@ -24957,7 +24921,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.282766059061499</v>
+        <v>1.285586202861072</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.040435543797581</v>
@@ -25046,7 +25010,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.288666240521104</v>
+        <v>1.291441386349352</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.17709762788532</v>
@@ -25135,7 +25099,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.277996291014937</v>
+        <v>1.282390590345784</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.055066970437162</v>
@@ -25224,7 +25188,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.260321759830014</v>
+        <v>1.268636691514475</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.106027944680545</v>
@@ -25313,7 +25277,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.248741394340361</v>
+        <v>1.256006489426291</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.179128253971979</v>
@@ -25402,7 +25366,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.226606586094128</v>
+        <v>1.233203216057929</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.191667666504421</v>
@@ -25491,7 +25455,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.22601384215855</v>
+        <v>1.238174998290667</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.118303872214771</v>
@@ -25580,7 +25544,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.242554698789246</v>
+        <v>1.25538275977055</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.683755571748096</v>
@@ -25669,7 +25633,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.229970488611604</v>
+        <v>1.241882996087778</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.427151693388472</v>
@@ -25758,7 +25722,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.210824435759282</v>
+        <v>1.225900264812054</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.477019287861014</v>
@@ -25847,7 +25811,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.200999580852318</v>
+        <v>1.210487003822789</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.491753711438005</v>
@@ -25936,7 +25900,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.172958446241244</v>
+        <v>1.183166341892088</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.150636828125535</v>
@@ -26025,7 +25989,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.152995952611457</v>
+        <v>1.159681426696671</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.303846535187369</v>
@@ -26114,7 +26078,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.137072756776879</v>
+        <v>1.144068039366666</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.144082254787938</v>
@@ -26203,7 +26167,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.127770428535985</v>
+        <v>1.133592046160347</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.3676265743676</v>
@@ -26292,7 +26256,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.126015310081321</v>
+        <v>1.128838701380952</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.182284745469228</v>
@@ -26381,7 +26345,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.118078089200227</v>
+        <v>1.117497856807998</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.390252990367916</v>
@@ -26470,7 +26434,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.11141217668105</v>
+        <v>1.110335898245069</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.201569721670344</v>
@@ -26559,7 +26523,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.111867720930167</v>
+        <v>1.112007542575723</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.413171954038935</v>
@@ -26648,7 +26612,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.105791330408694</v>
+        <v>1.102699967547194</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.365571801834179</v>
@@ -26737,7 +26701,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.094833465248826</v>
+        <v>1.093673181847877</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.326083249656425</v>
@@ -26826,7 +26790,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.090214594629006</v>
+        <v>1.08477532858215</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.440295460799637</v>
@@ -26915,7 +26879,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.080375347421215</v>
+        <v>1.074033112508058</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.524548651469137</v>
@@ -27004,7 +26968,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.075071195463148</v>
+        <v>1.071561843245276</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.345778834307709</v>
@@ -27290,7 +27254,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.518825181764383</v>
+        <v>1.522576082680011</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.922047074532071</v>
@@ -27379,7 +27343,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.522304031612012</v>
+        <v>1.526254477990544</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.603536663058219</v>
@@ -27468,7 +27432,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.528220796156159</v>
+        <v>1.533728819871301</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.553318869153145</v>
@@ -27557,7 +27521,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.535277049037734</v>
+        <v>1.53582311144582</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.720492193855625</v>
@@ -27646,7 +27610,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.553338741468935</v>
+        <v>1.558706683833448</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.904291697295222</v>
@@ -27735,7 +27699,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.559223218852807</v>
+        <v>1.561297858712091</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.741617316348478</v>
@@ -27824,7 +27788,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.557928668455693</v>
+        <v>1.559607229356574</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.667373990733544</v>
@@ -27913,7 +27877,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.558682005210293</v>
+        <v>1.55876220985924</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.962963417729142</v>
@@ -28002,7 +27966,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.558797775173578</v>
+        <v>1.549647404006056</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.809065537586375</v>
@@ -28091,7 +28055,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.550755045422199</v>
+        <v>1.544204252918594</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.933816956971857</v>
@@ -28180,7 +28144,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.503706703319508</v>
+        <v>1.499607966537105</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.392203494958969</v>
@@ -28269,7 +28233,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.346841425403046</v>
+        <v>1.339443056662221</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.574751499500357</v>
@@ -28358,7 +28322,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.299637204903598</v>
+        <v>1.302488418111694</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.575690819148677</v>
@@ -28447,7 +28411,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.298093796595837</v>
+        <v>1.299112374389389</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.576453139248304</v>
@@ -28536,7 +28500,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.273933384968612</v>
+        <v>1.272511099098127</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.575552515371703</v>
@@ -28625,7 +28589,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.271294029978501</v>
+        <v>1.268487963439744</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.56152649277948</v>
@@ -28714,7 +28678,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.280796275280618</v>
+        <v>1.282890783955728</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.575833187239589</v>
@@ -28803,7 +28767,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.278573012214714</v>
+        <v>1.283964616484162</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.571300795532617</v>
@@ -28892,7 +28856,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.276109947535169</v>
+        <v>1.280244945223857</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.57558004454302</v>
@@ -28981,7 +28945,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.266877595660507</v>
+        <v>1.26890553589787</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.562348887801018</v>
@@ -29070,7 +29034,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.27513099180441</v>
+        <v>1.278486804730341</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.56390319236291</v>
@@ -29159,7 +29123,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.277883146579261</v>
+        <v>1.280002572613335</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.554805187862969</v>
@@ -29248,7 +29212,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.28464377541068</v>
+        <v>1.288553949161045</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.583878890526388</v>
@@ -29337,7 +29301,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.279405909724288</v>
+        <v>1.286216465706359</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.565519502731538</v>
@@ -29426,7 +29390,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.28819805491761</v>
+        <v>1.296043951800405</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.558713308715618</v>
@@ -29515,7 +29479,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.295809712625807</v>
+        <v>1.302932639383602</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.594026643716318</v>
@@ -29604,7 +29568,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.436060681518469</v>
+        <v>1.446225990258048</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.741906588916372</v>
@@ -29693,7 +29657,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.489108218285272</v>
+        <v>1.490216508050689</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.617291394125968</v>
@@ -29782,7 +29746,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.490815288024765</v>
+        <v>1.493311914625139</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.741507028597683</v>
@@ -29871,7 +29835,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.472440014651027</v>
+        <v>1.472997196749402</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.522681272995665</v>
@@ -29960,7 +29924,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.490963939680972</v>
+        <v>1.490066816420797</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.568731640571647</v>
@@ -30049,7 +30013,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.466202606196892</v>
+        <v>1.459069018830062</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.957992904861088</v>
@@ -30138,7 +30102,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.448435812834787</v>
+        <v>1.440116615212548</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.817363680139673</v>
@@ -30227,7 +30191,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.45515870573277</v>
+        <v>1.445413588575062</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.759222147576374</v>
@@ -30316,7 +30280,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.460523352952429</v>
+        <v>1.451522988532585</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.612733836618534</v>
@@ -30405,7 +30369,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.436358261067361</v>
+        <v>1.42843213171196</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.69678728306371</v>
@@ -30494,7 +30458,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.445727004313433</v>
+        <v>1.434905919856709</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.788757584422211</v>
@@ -30583,7 +30547,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.435592431876026</v>
+        <v>1.421094197437751</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.469087026896735</v>
@@ -30672,7 +30636,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.444253333929905</v>
+        <v>1.433933916762822</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.595945395643546</v>
@@ -30761,7 +30725,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.438157259319763</v>
+        <v>1.425635340953391</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.727674489904292</v>
@@ -30850,7 +30814,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.456714407081244</v>
+        <v>1.439362653066446</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.323534073446078</v>
@@ -30939,7 +30903,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.463979411318156</v>
+        <v>1.448331541891553</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.514987337080038</v>
@@ -31028,7 +30992,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.483964153902424</v>
+        <v>1.466252179909982</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.647032644666576</v>
@@ -31117,7 +31081,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.49164944673114</v>
+        <v>1.472317935056859</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.386809912602109</v>
@@ -31206,7 +31170,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.50521666819248</v>
+        <v>1.481495102881444</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.50660807885012</v>
@@ -31295,7 +31259,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.502831605881075</v>
+        <v>1.478552115836246</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.565019974265655</v>
@@ -31384,7 +31348,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.529375028687202</v>
+        <v>1.499278584953248</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.316949788404926</v>
@@ -31473,7 +31437,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.550059527769542</v>
+        <v>1.515735466815191</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.583948258942125</v>
@@ -31562,7 +31526,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.543240006888113</v>
+        <v>1.512323647363395</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.359750129491641</v>
